--- a/medicine/Enfance/Le_Laboratoire_aux_serpents/Le_Laboratoire_aux_serpents.xlsx
+++ b/medicine/Enfance/Le_Laboratoire_aux_serpents/Le_Laboratoire_aux_serpents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Laboratoire aux serpents (The Reptile Room, Le Laboratoire aux reptiles au Québec) est le deuxième tome de la série Les Désastreuses Aventures des orphelins Baudelaire par Lemony Snicket
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de leur épouvantable séjour chez l'ignoble comte Olaf, Violette, Klaus et Prunille s'installent chez leur oncle Montgomery Montgomery, alias oncle Monty, un homme enthousiaste et accueillant, spécialiste des serpents. II travaille dans un grand laboratoire plein de serpents en cage et est doté d'une bibliothèque parlant uniquement de l'herpétologie. Monty a découvert et nommé la Mortellement Néfaste Vipère. Il s'agit d'un inoffensif serpent dont Monty a inventé le nom par plaisanterie, et qui se prend instantanément d'amitié pour Prunille. Monty, qui doit partir au Pérou à un congrès d'herpétologie pour y présenter sa découverte, propose aux enfants de l'accompagner. Ils acceptent avec joie.
 Quand Stephano, le nouvel assistant de Monty, arrive, les orphelins reconnaissent avec horreur le comte Olaf. Les enfants tentent, sans succès, de convaincre Monty de la dangerosité de ce personnage. Finalement, Monty commence à avoir des soupçons, bien qu'il le prenne par erreur pour un espion de la société d'herpétologie. Il décide de se passer de lui pour le voyage au Pérou.
@@ -549,7 +563,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2004, le roman est adapté au cinéma dans le long-métrage Les Désastreuses Aventures des Orphelins Baudelaire de Brad Silberling, aux côtés du premier et du troisième tomes. 
 En 2017, la série télévisée Les Désastreuses Aventures des Orphelins Baudelaire adapte également le roman dans le troisième et quatrième épisodes de la première saison.
